--- a/Doc/体系导入模板.xlsx
+++ b/Doc/体系导入模板.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -11,12 +11,12 @@
     <sheet name="FileAndPicture" sheetId="2" r:id="rId2"/>
     <sheet name="InspectionStandard" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="32">
   <si>
     <t>期号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -107,14 +107,50 @@
   </si>
   <si>
     <t>检查标准</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2018Q4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.1.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拍照</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>门厅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前台</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,7 +174,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -146,18 +182,37 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -170,7 +225,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -244,7 +299,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -279,7 +333,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -455,14 +508,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:Q21"/>
   <sheetViews>
-    <sheetView topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="Q2" sqref="Q2"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="3" max="3" width="18.875" customWidth="1"/>
     <col min="5" max="5" width="13.125" customWidth="1"/>
@@ -475,7 +528,7 @@
     <col min="15" max="16" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:17" ht="21.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -528,14 +581,419 @@
         <v>16</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.15">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
+    <row r="2" spans="1:17">
+      <c r="A2" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>2</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N2" s="3">
+        <v>1</v>
+      </c>
+      <c r="O2" s="3">
+        <v>1</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="N3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="2"/>
+      <c r="Q3" s="2"/>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+    </row>
+    <row r="7" spans="1:17">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+    </row>
+    <row r="9" spans="1:17">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+    </row>
+    <row r="11" spans="1:17">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
+      <c r="J12" s="2"/>
+      <c r="K12" s="2"/>
+      <c r="L12" s="2"/>
+      <c r="M12" s="2"/>
+      <c r="N12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="2"/>
+      <c r="Q12" s="2"/>
+    </row>
+    <row r="13" spans="1:17">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+      <c r="I13" s="2"/>
+      <c r="J13" s="2"/>
+      <c r="K13" s="2"/>
+      <c r="L13" s="2"/>
+      <c r="M13" s="2"/>
+      <c r="N13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="2"/>
+      <c r="Q13" s="2"/>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+      <c r="I14" s="2"/>
+      <c r="J14" s="2"/>
+      <c r="K14" s="2"/>
+      <c r="L14" s="2"/>
+      <c r="M14" s="2"/>
+      <c r="N14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="2"/>
+      <c r="Q14" s="2"/>
+    </row>
+    <row r="15" spans="1:17">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+      <c r="M15" s="2"/>
+      <c r="N15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="2"/>
+      <c r="Q15" s="2"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+    </row>
+    <row r="17" spans="1:17">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+      <c r="K17" s="2"/>
+      <c r="L17" s="2"/>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="A18" s="2"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+    </row>
+    <row r="19" spans="1:17">
+      <c r="A19" s="2"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="2"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
+      <c r="F21" s="2"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -545,31 +1003,93 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="2" t="s">
         <v>20</v>
       </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -578,28 +1098,83 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>22</v>
       </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2">
+        <v>2</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
